--- a/afar_project/csv_path/frc_asset_schedule.xlsx
+++ b/afar_project/csv_path/frc_asset_schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,27 +434,27 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Opening Balance</t>
+          <t>Balance ( Pre MAB assets)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Accumulated Purchases( Post MAB)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Purchases (New)</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Sub Total</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Cost of asset sold</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Current Balance</t>
+          <t>Rate ( Pre MAB Assets)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -464,27 +464,42 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Accumulated Depreciation (Opening Balance)</t>
+          <t>Accumulated Depreciation</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>Depreciation ( Pre MAB)</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Depreciation (Post MAB)</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Depreciation ( New Purchases)</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Depreciation Charges</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Total Accumulated Depreciation</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>WDV</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Status</t>
         </is>
       </c>
     </row>
@@ -498,19 +513,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4428298.6</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>4428298.6</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G2" t="n">
-        <v>4428298.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -518,20 +533,27 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>885659.72</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>885659.72</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>885659.72</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3542638.88</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="N2" t="n">
+        <v>13</v>
+      </c>
+      <c r="O2" t="n">
+        <v>52</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -543,19 +565,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7247934</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="E3" t="n">
-        <v>7247934</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3372364</v>
+        <v>635</v>
       </c>
       <c r="G3" t="n">
-        <v>3875570</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -563,20 +585,27 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1035419.14</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1035419.14</v>
+        <v>90.70999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>1035419.14</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6212514.86</v>
-      </c>
+        <v>90.70999999999999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>90.70999999999999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>544.29</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -588,19 +617,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6222009.859999999</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="E4" t="n">
-        <v>6222073.86</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2734043.58</v>
+        <v>169</v>
       </c>
       <c r="G4" t="n">
-        <v>3488030.28</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -608,20 +637,27 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>622200.99</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>622264.99</v>
+        <v>16.9</v>
       </c>
       <c r="L4" t="n">
-        <v>622264.99</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5599808.87</v>
-      </c>
+        <v>16.9</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -633,19 +669,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>669046</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>669046</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>669046</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -653,20 +689,27 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>95578</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>95578</v>
+        <v>1.43</v>
       </c>
       <c r="L5" t="n">
-        <v>95578</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>573468</v>
-      </c>
+        <v>1.43</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,19 +721,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43343292</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>43343292</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>43343292</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -698,20 +741,27 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>4334329.2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4334329.2</v>
+        <v>0.7</v>
       </c>
       <c r="L6" t="n">
-        <v>4334329.2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>39008962.8</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -723,19 +773,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1098596.4</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>1098596.4</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>1098596.4</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -743,20 +793,27 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>54929.82</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>54929.82</v>
+        <v>0.5</v>
       </c>
       <c r="L7" t="n">
-        <v>54929.82</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1043666.58</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -768,19 +825,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1436710</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="E8" t="n">
-        <v>1436710</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="G8" t="n">
-        <v>1436710</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -788,20 +845,27 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>95780.67</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>95780.67</v>
+        <v>24.27</v>
       </c>
       <c r="L8" t="n">
-        <v>95780.67</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1340929.33</v>
-      </c>
+        <v>24.27</v>
+      </c>
+      <c r="N8" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="O8" t="n">
+        <v>339.73</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -813,19 +877,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>133800</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
-        <v>133800</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>133800</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -833,20 +897,27 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8920</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>8920</v>
+        <v>0.73</v>
       </c>
       <c r="L9" t="n">
-        <v>8920</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>124880</v>
-      </c>
+        <v>0.73</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O9" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -858,19 +929,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1215710</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E10" t="n">
-        <v>1215710</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G10" t="n">
-        <v>1215710</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -878,20 +949,27 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>60785.5</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>60785.5</v>
+        <v>4.15</v>
       </c>
       <c r="L10" t="n">
-        <v>60785.5</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1154924.5</v>
-      </c>
+        <v>4.15</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>78.84999999999999</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -903,19 +981,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2805682.5</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E11" t="n">
-        <v>2805682.5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G11" t="n">
-        <v>2805682.5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -923,20 +1001,27 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>187045.5</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>187045.5</v>
+        <v>50</v>
       </c>
       <c r="L11" t="n">
-        <v>187045.5</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2618637</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N11" t="n">
+        <v>50</v>
+      </c>
+      <c r="O11" t="n">
+        <v>700</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -948,19 +1033,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>751937.5</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>751937.5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>751937.5</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -968,20 +1053,27 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>75193.75</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>75193.75</v>
+        <v>0.5</v>
       </c>
       <c r="L12" t="n">
-        <v>75193.75</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>676743.75</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -993,19 +1085,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9466558.5</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E13" t="n">
-        <v>9466558.5</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="G13" t="n">
-        <v>9466558.5</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1013,20 +1105,27 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>473327.93</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>473327.93</v>
+        <v>3.3</v>
       </c>
       <c r="L13" t="n">
-        <v>473327.93</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>8993230.57</v>
-      </c>
+        <v>3.3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1038,19 +1137,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9542155</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="E14" t="n">
-        <v>9542155</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="G14" t="n">
-        <v>9542155</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1058,20 +1157,27 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>636143.67</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>636143.67</v>
+        <v>18.73</v>
       </c>
       <c r="L14" t="n">
-        <v>636143.67</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>8906011.33</v>
-      </c>
+        <v>18.73</v>
+      </c>
+      <c r="N14" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="O14" t="n">
+        <v>262.27</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/afar_project/csv_path/frc_asset_schedule.xlsx
+++ b/afar_project/csv_path/frc_asset_schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,70 +434,65 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Balance ( Pre MAB assets)</t>
+          <t>Opening Balance</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Accumulated Purchases( Post MAB)</t>
+          <t>Purchases (New)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Purchases (New)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Sale of Assets</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Rate ( Pre MAB Assets)</t>
+          <t>Net Balance</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Rate ( Post MAB Assets)</t>
+          <t>Rate of Depreciation</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Accumulated Depreciation</t>
+          <t>Accumulated Depreciation (Opening)</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Depreciation ( Pre MAB)</t>
+          <t>Depreciation Charges</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Depreciation (Post MAB)</t>
+          <t>Accumulated Depreciation on Sold Items</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Depreciation ( New Purchases)</t>
+          <t>Net Accumulated Depreciation</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Depreciation Charges</t>
+          <t>Accumulated Impairment</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Total Accumulated Depreciation</t>
+          <t>WDV</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
-        <is>
-          <t>WDV</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>

--- a/afar_project/csv_path/frc_asset_schedule.xlsx
+++ b/afar_project/csv_path/frc_asset_schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,65 +434,70 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Opening Balance</t>
+          <t>Balance ( Pre MAB assets)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Accumulated Purchases( Post MAB)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Purchases (New)</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Sale of Assets</t>
-        </is>
-      </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Net Balance</t>
+          <t>Rate ( Pre MAB Assets)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Rate of Depreciation</t>
+          <t>Rate ( Post MAB Assets)</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Accumulated Depreciation (Opening)</t>
+          <t>Accumulated Depreciation</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>Depreciation ( Pre MAB)</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Depreciation (Post MAB)</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Depreciation ( New Purchases)</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Depreciation Charges</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Accumulated Depreciation on Sold Items</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Net Accumulated Depreciation</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Accumulated Impairment</t>
-        </is>
-      </c>
       <c r="N1" t="inlineStr">
         <is>
+          <t>Total Accumulated Depreciation</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>WDV</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>

--- a/afar_project/csv_path/frc_asset_schedule.xlsx
+++ b/afar_project/csv_path/frc_asset_schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,70 +434,65 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Balance ( Pre MAB assets)</t>
+          <t>Opening Balance</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Accumulated Purchases( Post MAB)</t>
+          <t>Purchases During the Period</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Purchases (New)</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Sale of Assets</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Rate ( Pre MAB Assets)</t>
+          <t>Rate of Depreciation</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Rate ( Post MAB Assets)</t>
+          <t>Opening Accumulated Depreciation</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Accumulated Depreciation</t>
+          <t>Depreciation Charges</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Depreciation ( Pre MAB)</t>
+          <t>Depreciation on Assets Sold</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Depreciation (Post MAB)</t>
+          <t>Net Accumulated Depreciation</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Depreciation ( New Purchases)</t>
+          <t>Impairment Charges</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Depreciation Charges</t>
+          <t>Accumulated Impairment</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Total Accumulated Depreciation</t>
+          <t>WDV</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
-        <is>
-          <t>WDV</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
